--- a/data/cross_matrix_reverse.xlsx
+++ b/data/cross_matrix_reverse.xlsx
@@ -41,10 +41,10 @@
     <t xml:space="preserve">2025_test01</t>
   </si>
   <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
     <t xml:space="preserve">2025_test01反交</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A</t>
   </si>
   <si>
     <t xml:space="preserve">A反交</t>
@@ -413,8 +413,12 @@
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
       <c r="H2"/>
     </row>
     <row r="3">
@@ -423,14 +427,14 @@
       </c>
       <c r="B3"/>
       <c r="C3"/>
-      <c r="D3" t="s">
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -438,16 +442,14 @@
         <v>3</v>
       </c>
       <c r="B4"/>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
+      <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
-      <c r="F4"/>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
       <c r="G4"/>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
+      <c r="H4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -457,9 +459,7 @@
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
+      <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
     </row>
@@ -467,12 +467,16 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6" t="s">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
+      <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
@@ -481,7 +485,9 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
@@ -495,11 +501,9 @@
       </c>
       <c r="B8"/>
       <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D8"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
